--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/Don_Simf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/Don_Simf/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\Don_Simf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4DE6A5-6BA8-46C6-AD30-DDE34D466B7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF1FE71-3561-4D4D-9E40-F54616C94BDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
